--- a/medicine/Enfance/Corinne_Bouvet_de_Maisonneuve/Corinne_Bouvet_de_Maisonneuve.xlsx
+++ b/medicine/Enfance/Corinne_Bouvet_de_Maisonneuve/Corinne_Bouvet_de_Maisonneuve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corinne Bouvet de Maisonneuve, née le 21 mai 1954  à Paris, est une femme de lettres française.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Corinne Bouvet de Maisonneuve a grandi à Paris, où elle a suivi des études de droit (licence) à l'université de Sceaux.
 De 1976 à 1993, elle a essentiellement habité à l’étranger, aux États-Unis, en Malaisie et aux Philippines.[réf. nécessaire]
@@ -548,14 +562,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Le Roman de Georgette - Éditions Nil (janvier 1998), Adapté en téléfilm en 2005[réf. nécessaire]
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Roman de Georgette - Éditions Nil (janvier 1998), Adapté en téléfilm en 2005[réf. nécessaire]
 Torchebise - Éditions l’Harmattan (mars 2004) Couverture de Jeanne Teston) Ré-édition Les Passionnés de Bouquins (juin 2013)
 Le Mat et le Merveilleux - Éditions Jacques André (avril 2008)
 Un Amour Annoncé - Éditions les Passionnés de Bouquins (novembre 2011)
-Khaddouj, la vie d'une Femme courageuse - Éditions Les Passionnés de Bouquins (juin 2013)
-Ouvrages jeunesse
-Ballon de choc ! Éditions Milan Presse (janvier 2008) illustrations de Gilles-Marie Baur
+Khaddouj, la vie d'une Femme courageuse - Éditions Les Passionnés de Bouquins (juin 2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Corinne_Bouvet_de_Maisonneuve</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corinne_Bouvet_de_Maisonneuve</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ballon de choc ! Éditions Milan Presse (janvier 2008) illustrations de Gilles-Marie Baur
 L'Hôtel du soleil à l'envers - Éditions Lito (janvier 2008) illustrations de Véronique Joffre
 Le Secret de la vache Tartine - Éditions Unberger (juillet 2011) illustrations de Joseph Michalski</t>
         </is>
